--- a/xlsx/Nissan_intext.xlsx
+++ b/xlsx/Nissan_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="586">
   <si>
     <t>Nissan</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%AB%E6%BF%B1%E6%B8%AF%E6%9C%AA%E4%BE%8621</t>
   </si>
   <si>
-    <t>橫濱港未來21</t>
-  </si>
-  <si>
-    <t>政策_政策_混合動力車輛_Nissan</t>
+    <t>横滨港未来21</t>
+  </si>
+  <si>
+    <t>政策_政策_混合动力车辆_Nissan</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD%E5%90%8D%E7%A8%B1</t>
   </si>
   <si>
-    <t>商業名稱</t>
+    <t>商业名称</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B8%82%E5%85%AC%E5%8F%B8</t>
@@ -47,19 +47,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8%E4%BB%A3%E8%99%9F</t>
   </si>
   <si>
-    <t>股票代號</t>
+    <t>股票代号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
   </si>
   <si>
-    <t>東京證券交易所</t>
+    <t>东京证券交易所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%B4%E5%A4%96%E9%9B%BB%E5%AD%90%E4%BA%A4%E6%98%93%E6%9D%BF</t>
   </si>
   <si>
-    <t>場外電子交易板</t>
+    <t>场外电子交易板</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E6%B3%95%E4%BA%BA%E7%95%AA%E5%8F%B7</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E8%BE%A6%E4%BA%BA</t>
   </si>
   <si>
-    <t>創辦人</t>
+    <t>创办人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%B4%9B%E6%96%AF%C2%B7%E6%88%88%E6%81%A9</t>
@@ -83,19 +83,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%A1%A8%E5%8F%96%E7%B7%A0%E5%BD%B9</t>
   </si>
   <si>
-    <t>代表取締役</t>
+    <t>代表取缔役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E9%95%B7</t>
   </si>
   <si>
-    <t>會長</t>
+    <t>会长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E9%95%B7</t>
   </si>
   <si>
-    <t>社長</t>
+    <t>社长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CEO</t>
@@ -113,19 +113,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%B8%A3</t>
   </si>
   <si>
-    <t>神奈川縣</t>
+    <t>神奈川县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%AB%E6%BF%B1%E5%B8%82</t>
   </si>
   <si>
-    <t>橫濱市</t>
+    <t>横滨市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8D%80_(%E6%A9%AB%E6%BF%B1%E5%B8%82)</t>
   </si>
   <si>
-    <t>西區 (橫濱市)</t>
+    <t>西区 (横滨市)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A</t>
@@ -137,13 +137,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>金融服務</t>
+    <t>金融服务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E6%A5%AD%E9%A1%8D</t>
   </si>
   <si>
-    <t>營業額</t>
+    <t>营业额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%85%83</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85%E5%89%8D%E6%81%AF%E5%89%8D%E5%88%A9%E6%BD%A4</t>
   </si>
   <si>
-    <t>稅前息前利潤</t>
+    <t>税前息前利润</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
@@ -167,13 +167,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%A2</t>
   </si>
   <si>
-    <t>資產</t>
+    <t>资产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E6%9D%B1%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>股東權益</t>
+    <t>股东权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%8F%B2%E5%B0%BC%E8%BF%AA</t>
@@ -203,37 +203,34 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%A5%88%E5%B7%9D%E5%8D%80</t>
   </si>
   <si>
-    <t>神奈川區</t>
+    <t>神奈川区</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E7%94%A3%E8%87%AA%E5%8B%95%E8%BB%8A</t>
   </si>
   <si>
-    <t>ja-日産自動車</t>
+    <t>ja-日产自动车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E5%9C%8B%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>跨國公司</t>
+    <t>跨国公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E8%A3%BD%E9%80%A0</t>
   </si>
   <si>
-    <t>汽車製造</t>
+    <t>汽车制造</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%AA%E6%BB%A8%E5%B8%82</t>
   </si>
   <si>
-    <t>横滨市</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E7%89%B9%E6%A1%91</t>
   </si>
   <si>
-    <t>達特桑</t>
+    <t>达特桑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B0%E7%94%B0%E6%B1%BD%E8%BD%A6</t>
@@ -245,13 +242,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E8%AB%BE</t>
   </si>
   <si>
-    <t>雷諾</t>
+    <t>雷诺</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Renault%E2%80%93Nissan_Alliance</t>
@@ -263,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>三菱汽車</t>
+    <t>三菱汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NHK</t>
@@ -281,19 +275,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E5%BA%A7</t>
   </si>
   <si>
-    <t>銀座</t>
+    <t>银座</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%80%E8%B3%A3%E6%96%B0%E8%81%9E%E9%9B%86%E5%9C%98%E6%9C%AC%E7%A4%BE</t>
   </si>
   <si>
-    <t>讀賣新聞集團本社</t>
+    <t>读卖新闻集团本社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E</t>
   </si>
   <si>
-    <t>日語</t>
+    <t>日语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E4%BA%AC</t>
@@ -311,19 +305,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B9%E5%85%A7%E6%98%8E%E5%A4%AA%E9%83%8E</t>
   </si>
   <si>
-    <t>竹內明太郎</t>
+    <t>竹内明太郎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%AB%E9%80%B2%E7%A4%BE</t>
   </si>
   <si>
-    <t>快進社</t>
+    <t>快进社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%98%AA</t>
   </si>
   <si>
-    <t>大阪</t>
+    <t>大坂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%96%87</t>
@@ -341,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%8D%81%E9%88%B4%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>五十鈴汽車</t>
+    <t>五十铃汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -365,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%AD%90%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>王子汽車</t>
+    <t>王子汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -377,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E7%9F%B3%E6%B2%B9%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>第二次石油危機</t>
+    <t>第二次石油危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
@@ -401,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%91%9F%E7%A6%8F%E7%B8%A3_(%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>拉瑟福縣 (田納西州)</t>
+    <t>拉瑟福县 (田纳西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -443,9 +437,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%93%B6%E5%BA%A7</t>
   </si>
   <si>
-    <t>银座</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%AA%E6%BB%A8</t>
   </si>
   <si>
@@ -455,7 +446,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AF%E6%9C%AA%E4%BE%8621</t>
   </si>
   <si>
-    <t>港未來21</t>
+    <t>港未来21</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -473,13 +464,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E8%A8%88</t>
   </si>
   <si>
-    <t>會計</t>
+    <t>会计</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E7%94%A3%E3%83%AA%E3%83%90%E3%82%A4%E3%83%90%E3%83%AB%E3%83%97%E3%83%A9%E3%83%B3</t>
   </si>
   <si>
-    <t>ja-日産リバイバルプラン</t>
+    <t>ja-日产リバイバルプラン</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%AB%E7%94%BB</t>
@@ -497,7 +488,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%9C%8B%E6%97%97</t>
   </si>
   <si>
-    <t>日本國旗</t>
+    <t>日本国旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E5%A7%86%E5%8B%92</t>
@@ -509,7 +500,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%BB%8A</t>
   </si>
   <si>
-    <t>卡車</t>
+    <t>卡车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%91%E8%BD%A6</t>
@@ -521,13 +512,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2Z%E7%B3%BB%E5%88%97</t>
   </si>
   <si>
-    <t>日產Z系列</t>
+    <t>日产Z系列</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2GT-R</t>
   </si>
   <si>
-    <t>日產GT-R</t>
+    <t>日产GT-R</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E9%A9%B1</t>
@@ -551,7 +542,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B8%E7%B4%85</t>
   </si>
   <si>
-    <t>丸紅</t>
+    <t>丸红</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E4%BA%A7%E9%A3%8E%E9%9B%85</t>
@@ -563,13 +554,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2%E5%90%9B%E7%88%B5</t>
   </si>
   <si>
-    <t>日產君爵</t>
+    <t>日产君爵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2%E6%96%B9%E5%A1%8A</t>
   </si>
   <si>
-    <t>日產方塊</t>
+    <t>日产方块</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E4%BA%A7%E8%A5%BF%E7%8E%9B</t>
@@ -587,7 +578,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2Juke</t>
   </si>
   <si>
-    <t>日產Juke</t>
+    <t>日产Juke</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E4%BA%A7%E8%81%86%E9%A3%8E</t>
@@ -605,19 +596,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2Maxima</t>
   </si>
   <si>
-    <t>日產Maxima</t>
+    <t>日产Maxima</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2March</t>
   </si>
   <si>
-    <t>日產March</t>
+    <t>日产March</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2Murano</t>
   </si>
   <si>
-    <t>日產Murano</t>
+    <t>日产Murano</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E4%BA%A7NV200</t>
@@ -653,19 +644,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2Rogue</t>
   </si>
   <si>
-    <t>日產Rogue</t>
+    <t>日产Rogue</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2Primera</t>
   </si>
   <si>
-    <t>日產Primera</t>
+    <t>日产Primera</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2Sentra</t>
   </si>
   <si>
-    <t>日產Sentra</t>
+    <t>日产Sentra</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E4%BA%A7%E5%A4%A9%E9%99%85%E7%BA%BF</t>
@@ -677,7 +668,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2%E5%A4%A9%E7%B1%9F</t>
   </si>
   <si>
-    <t>日產天籟</t>
+    <t>日产天籁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E4%BA%A7%E9%AA%90%E8%BE%BE</t>
@@ -695,7 +686,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%95%E9%9A%86%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>裕隆汽車</t>
+    <t>裕隆汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UD_Trucks</t>
@@ -731,7 +722,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%85%99%E8%8D%89%E7%94%A2%E6%A5%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>日本煙草產業公司</t>
+    <t>日本烟草产业公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/7%26I%E6%8E%A7%E8%82%A1</t>
@@ -743,31 +734,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E8%B6%8A%E5%8C%96%E5%AD%B8%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>信越化學工業</t>
+    <t>信越化学工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E7%94%B0%E8%97%A5%E5%93%81</t>
   </si>
   <si>
-    <t>武田藥品</t>
+    <t>武田药品</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E3%82%A2%E3%82%B9%E3%83%86%E3%83%A9%E3%82%B9%E8%A3%BD%E8%96%AC</t>
   </si>
   <si>
-    <t>ja-アステラス製薬</t>
+    <t>ja-アステラス制薬</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%AB%8B%E8%A3%BD%E4%BD%9C%E6%89%80</t>
   </si>
   <si>
-    <t>日立製作所</t>
+    <t>日立制作所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E4%B8%8B%E9%9B%BB%E5%99%A8</t>
   </si>
   <si>
-    <t>松下電器</t>
+    <t>松下电器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E5%B0%BC</t>
@@ -785,7 +776,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A3%9D</t>
   </si>
   <si>
-    <t>電裝</t>
+    <t>电装</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E9%82%A3%E7%A7%91</t>
@@ -797,7 +788,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%91%E7%94%B0%E8%A3%BD%E4%BD%9C%E6%89%80</t>
   </si>
   <si>
-    <t>村田製作所</t>
+    <t>村田制作所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%94%B0%E6%8A%80%E7%A0%94%E5%B7%A5%E4%B8%9A</t>
@@ -821,7 +812,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%BA%95%E7%89%A9%E7%94%A2</t>
   </si>
   <si>
-    <t>三井物產</t>
+    <t>三井物产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E5%95%86%E4%BA%8B</t>
@@ -833,25 +824,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E6%97%A5%E8%81%AF%E9%87%91%E8%9E%8D%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>三菱日聯金融集團</t>
+    <t>三菱日联金融集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%BA%95%E4%BD%8F%E5%8F%8B%E9%87%91%E8%9E%8D%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>三井住友金融集團</t>
+    <t>三井住友金融集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E7%A9%97%E9%87%91%E8%9E%8D%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>瑞穗金融集團</t>
+    <t>瑞穗金融集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E6%B5%B7%E4%B8%8A%E6%8E%A7%E8%82%A1</t>
   </si>
   <si>
-    <t>東京海上控股</t>
+    <t>东京海上控股</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E5%9C%B0%E6%89%80</t>
@@ -863,19 +854,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%97%A5%E6%9C%AC%E6%97%85%E5%AE%A2%E9%90%B5%E9%81%93</t>
   </si>
   <si>
-    <t>東日本旅客鐵道</t>
+    <t>东日本旅客铁道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%B5%B7%E6%97%85%E5%AE%A2%E9%90%B5%E9%81%93</t>
   </si>
   <si>
-    <t>東海旅客鐵道</t>
+    <t>东海旅客铁道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%9B%BB%E4%BF%A1%E9%9B%BB%E8%A9%B1</t>
   </si>
   <si>
-    <t>日本電信電話</t>
+    <t>日本电信电话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NTT_DOCOMO</t>
@@ -887,31 +878,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%8A%80%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>軟銀集團</t>
+    <t>软银集团</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%9B%BD%E9%9A%9B%E7%9F%B3%E6%B2%B9%E9%96%8B%E7%99%BA%E5%B8%9D%E7%9F%B3</t>
   </si>
   <si>
-    <t>ja-国際石油開発帝石</t>
+    <t>ja-国际石油开発帝石</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%A4%A7%E6%9D%B1%E5%BB%BA%E8%A8%97</t>
   </si>
   <si>
-    <t>ja-大東建託</t>
+    <t>ja-大东建讬</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%A4%A7%E5%92%8C%E3%83%8F%E3%82%A6%E3%82%B9%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>ja-大和ハウス工業</t>
+    <t>ja-大和ハウス工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%8D%E6%B0%B4%E6%88%BF%E5%B1%8B</t>
   </si>
   <si>
-    <t>積水房屋</t>
+    <t>积水房屋</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E3%82%A2%E3%82%B5%E3%83%92%E3%82%B0%E3%83%AB%E3%83%BC%E3%83%97%E3%83%9B%E3%83%BC%E3%83%AB%E3%83%87%E3%82%A3%E3%83%B3%E3%82%B0%E3%82%B9</t>
@@ -935,7 +926,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E9%BA%97%E6%A0%AA%E5%BC%8F%E6%9C%83%E7%A4%BE</t>
   </si>
   <si>
-    <t>東麗株式會社</t>
+    <t>东丽株式会社</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E6%97%AD%E5%8C%96%E6%88%90</t>
@@ -947,7 +938,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E5%8C%96%E5%AD%B8%E6%8E%A7%E8%82%A1</t>
   </si>
   <si>
-    <t>三菱化學控股</t>
+    <t>三菱化学控股</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E7%8E%8B</t>
@@ -959,7 +950,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%A9%E9%87%8E%E7%BE%A9%E8%A3%BD%E8%97%A5</t>
   </si>
   <si>
-    <t>塩野義製藥</t>
+    <t>塩野义制药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%AB%E6%9D%90</t>
@@ -971,7 +962,7 @@
     <t>https://ja.wikipedia.org/wiki/%E5%B0%8F%E9%87%8E%E8%96%AC%E5%93%81%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>ja-小野薬品工業</t>
+    <t>ja-小野薬品工业</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E4%B8%89%E5%85%B1</t>
@@ -983,7 +974,7 @@
     <t>https://ja.wikipedia.org/wiki/%E5%A4%A7%E5%A1%9A%E3%83%9B%E3%83%BC%E3%83%AB%E3%83%87%E3%82%A3%E3%83%B3%E3%82%B0%E3%82%B9</t>
   </si>
   <si>
-    <t>ja-大塚ホールディングス</t>
+    <t>ja-大冢ホールディングス</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Oriental_Land</t>
@@ -995,19 +986,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%82%E5%A4%A9_(Rakuten)</t>
   </si>
   <si>
-    <t>樂天 (Rakuten)</t>
+    <t>乐天 (Rakuten)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%A3%AB%E8%BB%9F%E7%89%87%E6%8E%A7%E8%82%A1</t>
   </si>
   <si>
-    <t>富士軟片控股</t>
+    <t>富士软片控股</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%9F%E5%A0%82</t>
   </si>
   <si>
-    <t>資生堂</t>
+    <t>资生堂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/JXTG%E6%8E%A7%E8%82%A1</t>
@@ -1025,7 +1016,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%97%A5%E9%90%B5%E4%BD%8F%E9%87%91</t>
   </si>
   <si>
-    <t>新日鐵住金</t>
+    <t>新日铁住金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/JFE%E6%8E%A7%E8%82%A1</t>
@@ -1043,7 +1034,7 @@
     <t>https://ja.wikipedia.org/wiki/%E4%BD%8F%E5%8F%8B%E9%9B%BB%E6%B0%97%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>ja-住友電気工業</t>
+    <t>ja-住友电気工业</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E3%83%AA%E3%82%AF%E3%83%AB%E3%83%BC%E3%83%88</t>
@@ -1061,19 +1052,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E6%9D%BE%E8%A3%BD%E4%BD%9C%E6%89%80</t>
   </si>
   <si>
-    <t>小松製作所</t>
+    <t>小松制作所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%85%E4%BF%9D%E7%94%B0_(%E4%BC%81%E6%A5%AD)</t>
   </si>
   <si>
-    <t>久保田 (企業)</t>
+    <t>久保田 (企业)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%87%91%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>大金工業</t>
+    <t>大金工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E7%94%B5%E6%9C%BA</t>
@@ -1085,7 +1076,7 @@
     <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%9B%BB%E7%94%A3</t>
   </si>
   <si>
-    <t>ja-日本電産</t>
+    <t>ja-日本电产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%A3%AB%E9%80%9A</t>
@@ -1103,7 +1094,7 @@
     <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E6%9D%B1%E9%9B%BB%E5%B7%A5</t>
   </si>
   <si>
-    <t>ja-日東電工</t>
+    <t>ja-日东电工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E9%87%8D%E5%B7%A5%E4%B8%9A</t>
@@ -1115,7 +1106,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%8D%81%E9%88%B4</t>
   </si>
   <si>
-    <t>五十鈴</t>
+    <t>五十铃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%87%AA%E8%BE%BE</t>
@@ -1127,13 +1118,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%88%B4%E6%9C%A8_(%E5%85%AC%E5%8F%B8)</t>
   </si>
   <si>
-    <t>鈴木 (公司)</t>
+    <t>铃木 (公司)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9F%E9%9C%B8%E9%99%B8</t>
   </si>
   <si>
-    <t>速霸陸</t>
+    <t>速霸陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E9%9B%85_(%E6%97%A5%E6%9C%AC)</t>
@@ -1151,7 +1142,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E5%A8%81%E5%8A%9B%E7%A7%91%E5%89%B5</t>
   </si>
   <si>
-    <t>東京威力科創</t>
+    <t>东京威力科创</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8F%E5%8F%8B%E5%95%86%E4%BA%8B</t>
@@ -1163,7 +1154,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AC%8C%E8%81%AF</t>
   </si>
   <si>
-    <t>嬌聯</t>
+    <t>娇联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E6%97%BA</t>
@@ -1187,7 +1178,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%8A%9B%E5%A3%AB</t>
   </si>
   <si>
-    <t>歐力士</t>
+    <t>欧力士</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%A4%A7%E5%92%8C%E8%A8%BC%E5%88%B8%E3%82%B0%E3%83%AB%E3%83%BC%E3%83%97%E6%9C%AC%E7%A4%BE</t>
@@ -1205,7 +1196,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%90%8D%E4%BF%9D%E6%97%A5%E6%9C%AC%E8%88%88%E4%BA%9E%E6%8E%A7%E8%82%A1</t>
   </si>
   <si>
-    <t>損保日本興亞控股</t>
+    <t>损保日本兴亚控股</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/MS%26AD%E3%82%A4%E3%83%B3%E3%82%B7%E3%83%A5%E3%82%A2%E3%83%A9%E3%83%B3%E3%82%B9%E3%82%B0%E3%83%AB%E3%83%BC%E3%83%97%E3%83%9B%E3%83%BC%E3%83%AB%E3%83%87%E3%82%A3%E3%83%B3%E3%82%B0%E3%82%B9</t>
@@ -1241,7 +1232,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%97%A5%E6%9C%AC%E6%97%85%E5%AE%A2%E9%90%B5%E9%81%93</t>
   </si>
   <si>
-    <t>西日本旅客鐵道</t>
+    <t>西日本旅客铁道</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E3%83%A4%E3%83%9E%E3%83%88%E3%83%9B%E3%83%BC%E3%83%AB%E3%83%87%E3%82%A3%E3%83%B3%E3%82%B0%E3%82%B9</t>
@@ -1265,25 +1256,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%83%A8%E9%9B%BB%E5%8A%9B</t>
   </si>
   <si>
-    <t>中部電力</t>
+    <t>中部电力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E8%A5%BF%E9%9B%BB%E5%8A%9B</t>
   </si>
   <si>
-    <t>關西電力</t>
+    <t>关西电力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E7%87%83%E6%B0%A3</t>
   </si>
   <si>
-    <t>東京燃氣</t>
+    <t>东京燃气</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%A4%A7%E9%98%AA%E3%82%AC%E3%82%B9</t>
   </si>
   <si>
-    <t>ja-大阪ガス</t>
+    <t>ja-大坂ガス</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SECOM</t>
@@ -1301,13 +1292,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%85%E9%8A%B7</t>
   </si>
   <si>
-    <t>迅銷</t>
+    <t>迅销</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%B6%93%E5%B9%B3%E5%9D%87%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>日經平均指數</t>
+    <t>日经平均指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%81%AB%E8%85%BF</t>
@@ -1331,7 +1322,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BE%9C%E7%94%B2%E8%90%AC</t>
   </si>
   <si>
-    <t>龜甲萬</t>
+    <t>龟甲万</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%AD%90%E5%88%B6%E7%BA%B8</t>
@@ -1343,7 +1334,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8F%E5%8F%8B%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>住友化學</t>
+    <t>住友化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E9%83%A8%E5%85%B4%E4%BA%A7</t>
@@ -1355,19 +1346,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E7%94%B0%E8%97%A5%E5%93%81%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>武田藥品工業</t>
+    <t>武田药品工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%97%A5%E6%9C%AC%E4%BD%8F%E5%8F%8B%E8%A3%BD%E8%97%A5</t>
   </si>
   <si>
-    <t>大日本住友製藥</t>
+    <t>大日本住友制药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B9%BD%E9%87%8E%E7%BE%A9%E8%A3%BD%E8%97%A5</t>
   </si>
   <si>
-    <t>鹽野義製藥</t>
+    <t>盐野义制药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/JX%E6%8E%A7%E8%82%A1</t>
@@ -1379,7 +1370,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%AB%E6%BF%B1%E6%A9%A1%E8%86%A0</t>
   </si>
   <si>
-    <t>橫濱橡膠</t>
+    <t>横滨橡胶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%AD%E7%A1%9D%E5%AD%90</t>
@@ -1397,13 +1388,13 @@
     <t>https://zh.wikipedia.org/wiki/TOTO_(%E4%BC%81%E6%A5%AD)</t>
   </si>
   <si>
-    <t>TOTO (企業)</t>
+    <t>TOTO (企业)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%88%B6%E8%A3%BD%E9%8B%BC%E6%89%80</t>
   </si>
   <si>
-    <t>神戶製鋼所</t>
+    <t>神户制钢所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%B2%BE%E5%B7%A5</t>
@@ -1421,7 +1412,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E8%A3%BD%E9%8B%BC%E6%89%80</t>
   </si>
   <si>
-    <t>日本製鋼所</t>
+    <t>日本制钢所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IHI</t>
@@ -1451,7 +1442,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%A5%BF%E6%AD%90</t>
   </si>
   <si>
-    <t>卡西歐</t>
+    <t>卡西欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E8%8A%9D</t>
@@ -1463,19 +1454,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%B7%9D%E9%9B%BB%E6%A9%9F</t>
   </si>
   <si>
-    <t>安川電機</t>
+    <t>安川电机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%9B%BB%E6%B0%A3</t>
   </si>
   <si>
-    <t>日本電氣</t>
+    <t>日本电气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%96%E9%9B%BB%E6%B0%A3%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>沖電氣工業</t>
+    <t>冲电气工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%99%AE</t>
@@ -1493,13 +1484,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%BE%8E%E9%9B%BB%E6%A9%9F</t>
   </si>
   <si>
-    <t>三美電機</t>
+    <t>三美电机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E9%8B%92%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>先鋒公司</t>
+    <t>先锋公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%98%B3%E8%AF%B1%E7%94%B5</t>
@@ -1511,27 +1502,24 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9D%E5%B4%8E%E9%87%8D%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>川崎重工業</t>
+    <t>川崎重工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%88%B4%E6%9C%A8%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>鈴木公司</t>
+    <t>铃木公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%A3%AB%E9%87%8D%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>富士重工業</t>
+    <t>富士重工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E6%B1%BD%E8%BD%A6</t>
   </si>
   <si>
-    <t>三菱汽车</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%BA%B7</t>
   </si>
   <si>
@@ -1541,13 +1529,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%B7%B4%E6%96%AF</t>
   </si>
   <si>
-    <t>奧林巴斯</t>
+    <t>奥林巴斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E5%B0%BC%E5%8D%A1%E7%BE%8E%E8%83%BD%E9%81%94</t>
   </si>
   <si>
-    <t>柯尼卡美能達</t>
+    <t>柯尼卡美能达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B8%E7%89%88%E5%8D%B0%E5%88%B7_(%E5%85%AC%E5%8F%B8)</t>
@@ -1571,37 +1559,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%88%90%E5%BB%BA%E8%A8%AD</t>
   </si>
   <si>
-    <t>大成建設</t>
+    <t>大成建设</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%9E%97%E7%B5%84</t>
   </si>
   <si>
-    <t>大林組</t>
+    <t>大林组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%B0%B4%E5%BB%BA%E8%A8%AD</t>
   </si>
   <si>
-    <t>清水建設</t>
+    <t>清水建设</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B9%BF%E5%B3%B6%E5%BB%BA%E8%A8%AD</t>
   </si>
   <si>
-    <t>鹿島建設</t>
+    <t>鹿岛建设</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%B6%8A%E4%BC%8A%E5%8B%A2%E4%B8%B9%E6%8E%A7%E8%82%A1</t>
   </si>
   <si>
-    <t>三越伊勢丹控股</t>
+    <t>三越伊势丹控股</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%B3%B6%E5%B1%8B</t>
   </si>
   <si>
-    <t>高島屋</t>
+    <t>高岛屋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B8%E4%BA%95</t>
@@ -1613,7 +1601,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E6%97%BA%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>永旺集團</t>
+    <t>永旺集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UNY</t>
@@ -1625,37 +1613,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E8%91%89%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>千葉銀行</t>
+    <t>千叶银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%AB%E6%BF%B1%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>橫濱銀行</t>
+    <t>横滨银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9C%E5%B2%A1%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>靜岡銀行</t>
+    <t>静冈银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%B2%A1%E9%87%91%E8%9E%8D%E9%9B%86%E5%9C%98%E8%82%A1%E4%BB%BD</t>
   </si>
   <si>
-    <t>福岡金融集團股份</t>
+    <t>福冈金融集团股份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%94%9F%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>新生銀行</t>
+    <t>新生银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E4%BA%95%E8%AD%89%E5%88%B8</t>
   </si>
   <si>
-    <t>松井證券</t>
+    <t>松井证券</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E5%B0%BC%E9%87%91%E8%9E%8D%E6%8E%A7%E8%82%A1</t>
@@ -1667,37 +1655,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E7%94%9F%E5%91%BD%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>第一生命保險</t>
+    <t>第一生命保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%AD%A6%E9%90%B5%E9%81%93</t>
   </si>
   <si>
-    <t>東武鐵道</t>
+    <t>东武铁道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E6%80%A5%E8%A1%8C%E9%9B%BB%E9%90%B5</t>
   </si>
   <si>
-    <t>東京急行電鐵</t>
+    <t>东京急行电铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%94%B0%E6%80%A5%E9%9B%BB%E9%90%B5</t>
   </si>
   <si>
-    <t>小田急電鐵</t>
+    <t>小田急电铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E7%8E%8B%E9%9B%BB%E9%90%B5</t>
   </si>
   <si>
-    <t>京王電鐵</t>
+    <t>京王电铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E6%88%90%E9%9B%BB%E9%90%B5</t>
   </si>
   <si>
-    <t>京成電鐵</t>
+    <t>京成电铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%80%9A%E8%BF%90</t>
@@ -1709,7 +1697,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%83%B5%E8%88%B9</t>
   </si>
   <si>
-    <t>日本郵船</t>
+    <t>日本邮船</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E8%88%B9%E4%B8%89%E4%BA%95</t>
@@ -1721,37 +1709,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E6%97%A5%E6%9C%AC%E7%A9%BA%E8%BC%B8</t>
   </si>
   <si>
-    <t>全日本空輸</t>
+    <t>全日本空输</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%8A%80</t>
   </si>
   <si>
-    <t>軟銀</t>
+    <t>软银</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E9%9B%BB%E5%8A%9B</t>
   </si>
   <si>
-    <t>東京電力</t>
+    <t>东京电力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%AF%B6</t>
   </si>
   <si>
-    <t>東寶</t>
+    <t>东宝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E5%B7%A8%E8%9B%8B</t>
   </si>
   <si>
-    <t>東京巨蛋</t>
+    <t>东京巨蛋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%A8%82%E7%BE%8E</t>
   </si>
   <si>
-    <t>科樂美</t>
+    <t>科乐美</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E9%80%9A</t>
@@ -1769,7 +1757,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%A8%E5%8B%A2%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>趨勢科技</t>
+    <t>趋势科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/DeNA</t>
@@ -3141,7 +3129,7 @@
         <v>69</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G35" t="n">
         <v>9</v>
@@ -3196,10 +3184,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3225,10 +3213,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3254,10 +3242,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -3283,10 +3271,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>12</v>
@@ -3312,10 +3300,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3341,10 +3329,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>3</v>
@@ -3370,10 +3358,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -3399,10 +3387,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3428,10 +3416,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3457,10 +3445,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3486,10 +3474,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>5</v>
@@ -3515,10 +3503,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -3544,10 +3532,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3573,10 +3561,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -3602,10 +3590,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3631,10 +3619,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>6</v>
@@ -3660,10 +3648,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3689,10 +3677,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -3718,10 +3706,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3747,10 +3735,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -3776,10 +3764,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3805,10 +3793,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>5</v>
@@ -3834,10 +3822,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3863,10 +3851,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -3892,10 +3880,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3921,10 +3909,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3950,10 +3938,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3979,10 +3967,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>3</v>
@@ -4008,10 +3996,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4037,10 +4025,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4066,10 +4054,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4095,10 +4083,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4124,10 +4112,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -4153,10 +4141,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4182,10 +4170,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -4211,10 +4199,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4240,10 +4228,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -4269,10 +4257,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -4298,10 +4286,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4356,10 +4344,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -4385,10 +4373,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -4414,10 +4402,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4443,10 +4431,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4472,10 +4460,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4501,10 +4489,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4530,10 +4518,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -4559,10 +4547,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4588,10 +4576,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -4617,10 +4605,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4646,10 +4634,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G87" t="n">
         <v>3</v>
@@ -4675,10 +4663,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4704,10 +4692,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G89" t="n">
         <v>3</v>
@@ -4733,10 +4721,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G90" t="n">
         <v>3</v>
@@ -4762,10 +4750,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4791,10 +4779,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4820,10 +4808,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4849,10 +4837,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4878,10 +4866,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F95" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4907,10 +4895,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4936,10 +4924,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F97" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4965,10 +4953,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F98" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4994,10 +4982,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F99" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -5023,10 +5011,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F100" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -5052,10 +5040,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F101" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5081,10 +5069,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F102" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5110,10 +5098,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F103" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5139,10 +5127,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F104" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5168,10 +5156,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F105" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5197,10 +5185,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F106" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5226,10 +5214,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F107" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5255,10 +5243,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F108" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5284,10 +5272,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F109" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5313,10 +5301,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F110" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5342,10 +5330,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F111" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5371,10 +5359,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F112" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5400,10 +5388,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F113" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5429,10 +5417,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F114" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5458,10 +5446,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F115" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -5487,10 +5475,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F116" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5516,10 +5504,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F117" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5545,10 +5533,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F118" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5574,10 +5562,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F119" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5603,10 +5591,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F120" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5632,10 +5620,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F121" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5661,10 +5649,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F122" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G122" t="n">
         <v>4</v>
@@ -5690,10 +5678,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F123" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5719,10 +5707,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F124" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5748,10 +5736,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F125" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5777,10 +5765,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F126" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5806,10 +5794,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F127" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -5835,10 +5823,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F128" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -5864,10 +5852,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F129" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5893,10 +5881,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F130" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G130" t="n">
         <v>4</v>
@@ -5922,10 +5910,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F131" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5951,10 +5939,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F132" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5980,10 +5968,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F133" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6009,10 +5997,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6038,10 +6026,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -6067,10 +6055,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6096,10 +6084,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>72</v>
+      </c>
+      <c r="F137" t="s">
         <v>73</v>
-      </c>
-      <c r="F137" t="s">
-        <v>74</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6125,10 +6113,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F138" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6154,10 +6142,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F139" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G139" t="n">
         <v>3</v>
@@ -6183,10 +6171,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F140" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6212,10 +6200,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F141" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -6241,10 +6229,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F142" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -6270,10 +6258,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F143" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -6299,10 +6287,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F144" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -6328,10 +6316,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F145" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -6357,10 +6345,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F146" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -6386,10 +6374,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F147" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -6415,10 +6403,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F148" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6444,10 +6432,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F149" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6473,10 +6461,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F150" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G150" t="n">
         <v>4</v>
@@ -6502,10 +6490,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F151" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6531,10 +6519,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F152" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6560,10 +6548,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F153" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6589,10 +6577,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F154" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -6618,10 +6606,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F155" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6647,10 +6635,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -6676,10 +6664,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6705,10 +6693,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -6734,10 +6722,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F159" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -6763,10 +6751,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -6792,10 +6780,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F161" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G161" t="n">
         <v>3</v>
@@ -6821,10 +6809,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F162" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -6850,10 +6838,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F163" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -6879,10 +6867,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F164" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6908,10 +6896,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6937,10 +6925,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F166" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6966,10 +6954,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G167" t="n">
         <v>3</v>
@@ -6995,10 +6983,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7024,10 +7012,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7053,10 +7041,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7082,10 +7070,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -7111,10 +7099,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -7140,10 +7128,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7169,10 +7157,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F174" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -7198,10 +7186,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F175" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -7227,10 +7215,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F176" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7256,10 +7244,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F177" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7285,10 +7273,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F178" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7314,10 +7302,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F179" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7343,10 +7331,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F180" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -7372,10 +7360,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F181" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7401,10 +7389,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F182" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -7430,10 +7418,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F183" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -7459,10 +7447,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F184" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -7488,10 +7476,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F185" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7517,10 +7505,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F186" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -7546,10 +7534,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F187" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -7575,10 +7563,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F188" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G188" t="n">
         <v>3</v>
@@ -7604,10 +7592,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F189" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -7633,10 +7621,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F190" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -7662,10 +7650,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F191" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7691,10 +7679,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F192" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7720,10 +7708,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F193" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7749,10 +7737,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F194" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7778,10 +7766,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F195" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -7807,10 +7795,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F196" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G196" t="n">
         <v>2</v>
@@ -7836,10 +7824,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F197" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7865,10 +7853,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F198" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -7894,10 +7882,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F199" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7923,10 +7911,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F200" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7952,10 +7940,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F201" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7981,10 +7969,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F202" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8010,10 +7998,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F203" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8039,10 +8027,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F204" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8068,10 +8056,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F205" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -8097,10 +8085,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F206" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8126,10 +8114,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F207" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8155,10 +8143,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F208" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8184,10 +8172,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F209" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8213,10 +8201,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F210" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -8242,10 +8230,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F211" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -8271,10 +8259,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F212" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8300,10 +8288,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F213" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8329,10 +8317,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F214" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8358,10 +8346,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F215" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8387,10 +8375,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F216" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -8416,10 +8404,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F217" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -8445,10 +8433,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F218" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -8474,10 +8462,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F219" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8503,10 +8491,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F220" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8532,10 +8520,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F221" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8561,10 +8549,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F222" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -8619,10 +8607,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F224" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G224" t="n">
         <v>3</v>
@@ -8648,10 +8636,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F225" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8677,10 +8665,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F226" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8706,10 +8694,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F227" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8735,10 +8723,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F228" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8764,10 +8752,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F229" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8793,10 +8781,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F230" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8822,10 +8810,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F231" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8851,10 +8839,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F232" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8880,10 +8868,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F233" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8909,10 +8897,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F234" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8938,10 +8926,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F235" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8967,10 +8955,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F236" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8996,10 +8984,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F237" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9025,10 +9013,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F238" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9054,10 +9042,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F239" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9083,10 +9071,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F240" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9112,10 +9100,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F241" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9141,10 +9129,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F242" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9170,10 +9158,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F243" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9199,10 +9187,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F244" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9228,10 +9216,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F245" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9257,10 +9245,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F246" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9286,10 +9274,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F247" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9315,10 +9303,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F248" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9344,10 +9332,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F249" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9373,10 +9361,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F250" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9402,10 +9390,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F251" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9431,10 +9419,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F252" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9460,10 +9448,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F253" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9489,10 +9477,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F254" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9518,10 +9506,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F255" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9547,10 +9535,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F256" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9576,10 +9564,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F257" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9605,10 +9593,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F258" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9634,10 +9622,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F259" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9663,10 +9651,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F260" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G260" t="n">
         <v>2</v>
@@ -9692,10 +9680,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F261" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9721,10 +9709,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F262" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9750,10 +9738,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F263" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9779,10 +9767,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F264" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G264" t="n">
         <v>2</v>
@@ -9808,10 +9796,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F265" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9837,10 +9825,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F266" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9866,10 +9854,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F267" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9895,10 +9883,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F268" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9924,10 +9912,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F269" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9953,10 +9941,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F270" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9982,10 +9970,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
+        <v>72</v>
+      </c>
+      <c r="F271" t="s">
         <v>73</v>
-      </c>
-      <c r="F271" t="s">
-        <v>74</v>
       </c>
       <c r="G271" t="n">
         <v>2</v>
@@ -10011,10 +9999,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F272" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10040,10 +10028,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F273" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -10069,10 +10057,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F274" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10098,10 +10086,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F275" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10127,10 +10115,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F276" t="s">
-        <v>504</v>
+        <v>80</v>
       </c>
       <c r="G276" t="n">
         <v>20</v>
@@ -10156,10 +10144,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F277" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10185,10 +10173,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F278" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10214,10 +10202,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F279" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10243,10 +10231,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F280" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10272,10 +10260,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F281" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10301,10 +10289,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F282" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10330,10 +10318,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F283" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10359,10 +10347,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F284" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10388,10 +10376,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F285" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10417,10 +10405,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F286" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10446,10 +10434,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F287" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10475,10 +10463,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F288" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10504,10 +10492,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F289" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10533,10 +10521,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F290" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10562,10 +10550,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F291" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10591,10 +10579,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F292" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10620,10 +10608,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F293" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10649,10 +10637,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F294" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10678,10 +10666,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F295" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10707,10 +10695,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F296" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10736,10 +10724,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F297" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10765,10 +10753,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F298" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10794,10 +10782,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F299" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10823,10 +10811,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F300" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -10852,10 +10840,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F301" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -10881,10 +10869,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F302" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -10910,10 +10898,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F303" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -10939,10 +10927,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F304" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -10968,10 +10956,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F305" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -10997,10 +10985,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F306" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11026,10 +11014,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F307" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11055,10 +11043,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F308" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11084,10 +11072,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F309" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11113,10 +11101,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F310" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11142,10 +11130,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F311" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11171,10 +11159,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F312" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11200,10 +11188,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F313" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11229,10 +11217,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F314" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11258,10 +11246,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F315" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11287,10 +11275,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F316" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11316,10 +11304,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F317" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11345,10 +11333,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F318" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11374,10 +11362,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F319" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11403,10 +11391,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F320" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11432,10 +11420,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F321" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11461,10 +11449,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F322" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11490,10 +11478,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F323" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11519,10 +11507,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F324" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11548,10 +11536,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F325" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11577,10 +11565,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F326" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11606,10 +11594,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F327" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11635,10 +11623,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F328" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11664,10 +11652,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F329" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -11693,10 +11681,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F330" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -11722,10 +11710,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F331" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G331" t="n">
         <v>4</v>
@@ -11751,10 +11739,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F332" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
